--- a/data/subset3/lengths15.xlsx
+++ b/data/subset3/lengths15.xlsx
@@ -1,16 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lis37\Documents\nitrate_and_water_in_csd\data\subset3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E0680B-5782-4741-9F96-F04C86EC1B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1906,8 +1948,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1970,13 +2012,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2014,7 +2064,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2048,6 +2098,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2082,9 +2133,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2257,14 +2309,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C314"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2275,7 +2329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2286,7 +2340,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2297,7 +2351,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2308,7 +2362,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2319,7 +2373,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2330,7 +2384,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2341,7 +2395,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2352,7 +2406,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2363,7 +2417,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2374,7 +2428,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -2385,7 +2439,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -2396,7 +2450,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -2407,7 +2461,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -2418,7 +2472,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -2429,7 +2483,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -2440,7 +2494,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -2451,7 +2505,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -2462,7 +2516,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -2473,7 +2527,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -2484,7 +2538,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -2495,7 +2549,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -2506,7 +2560,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -2517,7 +2571,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -2528,7 +2582,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -2539,7 +2593,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -2550,7 +2604,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -2561,7 +2615,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -2572,7 +2626,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -2583,7 +2637,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -2594,7 +2648,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -2605,7 +2659,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -2616,7 +2670,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -2627,7 +2681,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -2638,7 +2692,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -2649,7 +2703,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -2660,7 +2714,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -2671,7 +2725,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -2682,7 +2736,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -2693,7 +2747,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -2704,7 +2758,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -2715,7 +2769,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -2726,7 +2780,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -2737,7 +2791,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -2748,7 +2802,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -2759,7 +2813,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -2770,7 +2824,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -2781,7 +2835,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -2792,7 +2846,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -2803,7 +2857,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -2814,7 +2868,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -2825,7 +2879,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -2836,7 +2890,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -2847,7 +2901,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -2858,7 +2912,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -2869,7 +2923,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -2880,7 +2934,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -2891,7 +2945,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -2902,7 +2956,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -2913,7 +2967,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>61</v>
       </c>
@@ -2924,7 +2978,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -2935,7 +2989,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -2946,7 +3000,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -2957,7 +3011,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -2968,7 +3022,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -2979,7 +3033,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -2990,7 +3044,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -3001,7 +3055,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -3012,7 +3066,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -3023,7 +3077,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>71</v>
       </c>
@@ -3034,7 +3088,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>72</v>
       </c>
@@ -3045,7 +3099,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>73</v>
       </c>
@@ -3056,7 +3110,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>74</v>
       </c>
@@ -3067,7 +3121,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>75</v>
       </c>
@@ -3078,7 +3132,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>76</v>
       </c>
@@ -3089,7 +3143,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>77</v>
       </c>
@@ -3100,7 +3154,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>78</v>
       </c>
@@ -3111,7 +3165,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>79</v>
       </c>
@@ -3122,7 +3176,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>80</v>
       </c>
@@ -3133,7 +3187,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>81</v>
       </c>
@@ -3144,7 +3198,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>82</v>
       </c>
@@ -3155,7 +3209,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>83</v>
       </c>
@@ -3166,7 +3220,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>84</v>
       </c>
@@ -3177,7 +3231,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>85</v>
       </c>
@@ -3188,7 +3242,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>86</v>
       </c>
@@ -3199,7 +3253,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>87</v>
       </c>
@@ -3210,7 +3264,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>88</v>
       </c>
@@ -3221,7 +3275,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>89</v>
       </c>
@@ -3232,7 +3286,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>90</v>
       </c>
@@ -3243,7 +3297,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>91</v>
       </c>
@@ -3254,7 +3308,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>92</v>
       </c>
@@ -3265,7 +3319,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>93</v>
       </c>
@@ -3276,7 +3330,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>94</v>
       </c>
@@ -3287,7 +3341,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>95</v>
       </c>
@@ -3298,7 +3352,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>96</v>
       </c>
@@ -3309,7 +3363,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>97</v>
       </c>
@@ -3320,7 +3374,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>98</v>
       </c>
@@ -3331,7 +3385,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>99</v>
       </c>
@@ -3342,7 +3396,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>100</v>
       </c>
@@ -3353,7 +3407,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>101</v>
       </c>
@@ -3364,7 +3418,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>102</v>
       </c>
@@ -3375,7 +3429,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>103</v>
       </c>
@@ -3386,7 +3440,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>104</v>
       </c>
@@ -3397,7 +3451,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>105</v>
       </c>
@@ -3408,7 +3462,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>106</v>
       </c>
@@ -3419,7 +3473,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>107</v>
       </c>
@@ -3430,7 +3484,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>108</v>
       </c>
@@ -3441,7 +3495,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>109</v>
       </c>
@@ -3452,7 +3506,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>110</v>
       </c>
@@ -3463,7 +3517,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>111</v>
       </c>
@@ -3474,7 +3528,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>112</v>
       </c>
@@ -3485,7 +3539,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>113</v>
       </c>
@@ -3496,7 +3550,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>114</v>
       </c>
@@ -3507,7 +3561,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>115</v>
       </c>
@@ -3518,7 +3572,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>116</v>
       </c>
@@ -3529,7 +3583,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>117</v>
       </c>
@@ -3540,7 +3594,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>118</v>
       </c>
@@ -3551,7 +3605,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>119</v>
       </c>
@@ -3562,7 +3616,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>120</v>
       </c>
@@ -3573,7 +3627,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>121</v>
       </c>
@@ -3584,7 +3638,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>122</v>
       </c>
@@ -3595,7 +3649,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>123</v>
       </c>
@@ -3606,7 +3660,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>124</v>
       </c>
@@ -3617,7 +3671,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>125</v>
       </c>
@@ -3628,7 +3682,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>126</v>
       </c>
@@ -3639,7 +3693,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>127</v>
       </c>
@@ -3650,7 +3704,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>128</v>
       </c>
@@ -3661,7 +3715,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>129</v>
       </c>
@@ -3672,7 +3726,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>130</v>
       </c>
@@ -3683,7 +3737,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>131</v>
       </c>
@@ -3694,7 +3748,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>132</v>
       </c>
@@ -3705,7 +3759,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>133</v>
       </c>
@@ -3716,7 +3770,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>134</v>
       </c>
@@ -3727,7 +3781,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>135</v>
       </c>
@@ -3738,7 +3792,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>136</v>
       </c>
@@ -3749,7 +3803,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>137</v>
       </c>
@@ -3760,7 +3814,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>138</v>
       </c>
@@ -3771,7 +3825,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>139</v>
       </c>
@@ -3782,7 +3836,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>140</v>
       </c>
@@ -3793,7 +3847,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>141</v>
       </c>
@@ -3804,7 +3858,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>142</v>
       </c>
@@ -3815,7 +3869,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>143</v>
       </c>
@@ -3826,7 +3880,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>144</v>
       </c>
@@ -3837,7 +3891,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>145</v>
       </c>
@@ -3848,7 +3902,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>146</v>
       </c>
@@ -3859,7 +3913,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>147</v>
       </c>
@@ -3870,7 +3924,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>148</v>
       </c>
@@ -3881,7 +3935,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>149</v>
       </c>
@@ -3892,7 +3946,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>150</v>
       </c>
@@ -3903,7 +3957,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>151</v>
       </c>
@@ -3914,7 +3968,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>152</v>
       </c>
@@ -3925,7 +3979,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>153</v>
       </c>
@@ -3936,7 +3990,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>154</v>
       </c>
@@ -3947,7 +4001,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>155</v>
       </c>
@@ -3958,7 +4012,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>156</v>
       </c>
@@ -3969,7 +4023,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>157</v>
       </c>
@@ -3980,7 +4034,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>158</v>
       </c>
@@ -3991,7 +4045,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>159</v>
       </c>
@@ -4002,7 +4056,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>160</v>
       </c>
@@ -4013,7 +4067,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>161</v>
       </c>
@@ -4024,7 +4078,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>162</v>
       </c>
@@ -4035,7 +4089,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>163</v>
       </c>
@@ -4046,7 +4100,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>164</v>
       </c>
@@ -4057,7 +4111,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>165</v>
       </c>
@@ -4068,7 +4122,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>166</v>
       </c>
@@ -4079,7 +4133,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>167</v>
       </c>
@@ -4090,7 +4144,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>168</v>
       </c>
@@ -4101,7 +4155,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>169</v>
       </c>
@@ -4112,7 +4166,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>170</v>
       </c>
@@ -4123,7 +4177,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>171</v>
       </c>
@@ -4134,7 +4188,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>172</v>
       </c>
@@ -4145,7 +4199,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>173</v>
       </c>
@@ -4156,7 +4210,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>174</v>
       </c>
@@ -4167,7 +4221,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>175</v>
       </c>
@@ -4178,7 +4232,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>176</v>
       </c>
@@ -4189,7 +4243,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>177</v>
       </c>
@@ -4200,7 +4254,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>178</v>
       </c>
@@ -4211,7 +4265,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>179</v>
       </c>
@@ -4222,7 +4276,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>180</v>
       </c>
@@ -4233,7 +4287,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>181</v>
       </c>
@@ -4244,7 +4298,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>182</v>
       </c>
@@ -4255,7 +4309,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>183</v>
       </c>
@@ -4266,7 +4320,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>184</v>
       </c>
@@ -4277,7 +4331,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>185</v>
       </c>
@@ -4288,7 +4342,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>186</v>
       </c>
@@ -4299,7 +4353,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>187</v>
       </c>
@@ -4310,7 +4364,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>188</v>
       </c>
@@ -4321,7 +4375,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>189</v>
       </c>
@@ -4332,7 +4386,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>190</v>
       </c>
@@ -4343,7 +4397,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>191</v>
       </c>
@@ -4354,7 +4408,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>192</v>
       </c>
@@ -4365,7 +4419,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>193</v>
       </c>
@@ -4376,7 +4430,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>194</v>
       </c>
@@ -4387,7 +4441,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>195</v>
       </c>
@@ -4398,7 +4452,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>196</v>
       </c>
@@ -4409,7 +4463,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>197</v>
       </c>
@@ -4420,7 +4474,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>198</v>
       </c>
@@ -4431,7 +4485,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>199</v>
       </c>
@@ -4442,7 +4496,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>200</v>
       </c>
@@ -4453,7 +4507,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>201</v>
       </c>
@@ -4464,7 +4518,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>202</v>
       </c>
@@ -4475,7 +4529,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>203</v>
       </c>
@@ -4486,7 +4540,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>204</v>
       </c>
@@ -4497,7 +4551,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>205</v>
       </c>
@@ -4508,7 +4562,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>206</v>
       </c>
@@ -4519,7 +4573,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>207</v>
       </c>
@@ -4530,7 +4584,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>208</v>
       </c>
@@ -4541,7 +4595,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>209</v>
       </c>
@@ -4552,7 +4606,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>210</v>
       </c>
@@ -4563,7 +4617,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>211</v>
       </c>
@@ -4574,7 +4628,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>212</v>
       </c>
@@ -4585,7 +4639,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>213</v>
       </c>
@@ -4596,7 +4650,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>214</v>
       </c>
@@ -4607,7 +4661,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>215</v>
       </c>
@@ -4618,7 +4672,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>216</v>
       </c>
@@ -4629,7 +4683,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>217</v>
       </c>
@@ -4640,7 +4694,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>218</v>
       </c>
@@ -4651,7 +4705,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>219</v>
       </c>
@@ -4662,7 +4716,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>220</v>
       </c>
@@ -4673,7 +4727,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>221</v>
       </c>
@@ -4684,7 +4738,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>222</v>
       </c>
@@ -4695,7 +4749,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>223</v>
       </c>
@@ -4706,7 +4760,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>224</v>
       </c>
@@ -4717,7 +4771,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>225</v>
       </c>
@@ -4728,7 +4782,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>226</v>
       </c>
@@ -4739,7 +4793,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>227</v>
       </c>
@@ -4750,7 +4804,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>228</v>
       </c>
@@ -4761,7 +4815,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>229</v>
       </c>
@@ -4772,7 +4826,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>230</v>
       </c>
@@ -4783,7 +4837,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>231</v>
       </c>
@@ -4794,7 +4848,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>232</v>
       </c>
@@ -4805,7 +4859,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>233</v>
       </c>
@@ -4816,7 +4870,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>234</v>
       </c>
@@ -4827,7 +4881,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>235</v>
       </c>
@@ -4838,7 +4892,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>236</v>
       </c>
@@ -4849,7 +4903,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>237</v>
       </c>
@@ -4860,7 +4914,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>238</v>
       </c>
@@ -4871,7 +4925,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>239</v>
       </c>
@@ -4882,7 +4936,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>240</v>
       </c>
@@ -4893,7 +4947,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>241</v>
       </c>
@@ -4904,7 +4958,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>242</v>
       </c>
@@ -4915,7 +4969,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>243</v>
       </c>
@@ -4926,7 +4980,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>244</v>
       </c>
@@ -4937,7 +4991,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>245</v>
       </c>
@@ -4948,7 +5002,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>246</v>
       </c>
@@ -4959,7 +5013,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>247</v>
       </c>
@@ -4970,7 +5024,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>248</v>
       </c>
@@ -4981,7 +5035,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>249</v>
       </c>
@@ -4992,7 +5046,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>250</v>
       </c>
@@ -5003,7 +5057,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>251</v>
       </c>
@@ -5014,7 +5068,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>252</v>
       </c>
@@ -5025,7 +5079,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>253</v>
       </c>
@@ -5036,7 +5090,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>254</v>
       </c>
@@ -5047,7 +5101,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>255</v>
       </c>
@@ -5058,7 +5112,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>256</v>
       </c>
@@ -5069,7 +5123,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>257</v>
       </c>
@@ -5080,7 +5134,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="257" spans="1:3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>258</v>
       </c>
@@ -5091,7 +5145,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="258" spans="1:3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>259</v>
       </c>
@@ -5102,7 +5156,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>260</v>
       </c>
@@ -5113,7 +5167,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>261</v>
       </c>
@@ -5124,7 +5178,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>262</v>
       </c>
@@ -5135,7 +5189,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>263</v>
       </c>
@@ -5146,7 +5200,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="263" spans="1:3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>264</v>
       </c>
@@ -5157,7 +5211,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>265</v>
       </c>
@@ -5168,7 +5222,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>266</v>
       </c>
@@ -5179,7 +5233,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="266" spans="1:3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>267</v>
       </c>
@@ -5190,7 +5244,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>268</v>
       </c>
@@ -5201,7 +5255,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>269</v>
       </c>
@@ -5212,7 +5266,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>270</v>
       </c>
@@ -5223,7 +5277,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>271</v>
       </c>
@@ -5234,7 +5288,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>272</v>
       </c>
@@ -5245,7 +5299,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>273</v>
       </c>
@@ -5256,7 +5310,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>274</v>
       </c>
@@ -5267,7 +5321,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>275</v>
       </c>
@@ -5278,7 +5332,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>276</v>
       </c>
@@ -5289,7 +5343,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>277</v>
       </c>
@@ -5300,7 +5354,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="277" spans="1:3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>278</v>
       </c>
@@ -5311,7 +5365,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="278" spans="1:3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>279</v>
       </c>
@@ -5322,7 +5376,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="279" spans="1:3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>280</v>
       </c>
@@ -5333,7 +5387,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="280" spans="1:3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>281</v>
       </c>
@@ -5344,7 +5398,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="281" spans="1:3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>282</v>
       </c>
@@ -5355,7 +5409,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="282" spans="1:3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>283</v>
       </c>
@@ -5366,7 +5420,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="283" spans="1:3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>284</v>
       </c>
@@ -5377,7 +5431,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="284" spans="1:3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>285</v>
       </c>
@@ -5388,7 +5442,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="285" spans="1:3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>286</v>
       </c>
@@ -5399,7 +5453,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="286" spans="1:3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>287</v>
       </c>
@@ -5410,7 +5464,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="287" spans="1:3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>288</v>
       </c>
@@ -5421,7 +5475,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="288" spans="1:3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>289</v>
       </c>
@@ -5432,7 +5486,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="289" spans="1:3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>290</v>
       </c>
@@ -5443,7 +5497,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="290" spans="1:3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>291</v>
       </c>
@@ -5454,7 +5508,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="291" spans="1:3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>292</v>
       </c>
@@ -5465,7 +5519,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="292" spans="1:3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>293</v>
       </c>
@@ -5476,7 +5530,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="293" spans="1:3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>294</v>
       </c>
@@ -5487,7 +5541,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="294" spans="1:3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>295</v>
       </c>
@@ -5498,7 +5552,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="295" spans="1:3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>296</v>
       </c>
@@ -5509,7 +5563,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="296" spans="1:3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>297</v>
       </c>
@@ -5520,7 +5574,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="297" spans="1:3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>298</v>
       </c>
@@ -5531,7 +5585,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="298" spans="1:3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>299</v>
       </c>
@@ -5542,7 +5596,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="299" spans="1:3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>300</v>
       </c>
@@ -5553,7 +5607,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="300" spans="1:3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>301</v>
       </c>
@@ -5564,7 +5618,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="301" spans="1:3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>302</v>
       </c>
@@ -5575,7 +5629,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="302" spans="1:3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>303</v>
       </c>
@@ -5586,7 +5640,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="303" spans="1:3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>304</v>
       </c>
@@ -5597,7 +5651,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="304" spans="1:3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>305</v>
       </c>
@@ -5608,7 +5662,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="305" spans="1:3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>306</v>
       </c>
@@ -5619,7 +5673,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="306" spans="1:3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>307</v>
       </c>
@@ -5630,7 +5684,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="307" spans="1:3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>308</v>
       </c>
@@ -5641,7 +5695,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="308" spans="1:3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>309</v>
       </c>
@@ -5652,7 +5706,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="309" spans="1:3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>310</v>
       </c>
@@ -5663,7 +5717,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="310" spans="1:3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>311</v>
       </c>
@@ -5674,7 +5728,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="311" spans="1:3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>312</v>
       </c>
@@ -5685,7 +5739,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="312" spans="1:3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>313</v>
       </c>
@@ -5696,7 +5750,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="313" spans="1:3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>314</v>
       </c>
@@ -5707,7 +5761,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="314" spans="1:3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>315</v>
       </c>
@@ -5716,6 +5770,1803 @@
       </c>
       <c r="C314" t="s">
         <v>628</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F13AD411-ED15-4F49-9808-B461A59DB179}">
+  <dimension ref="A1:D314"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" cm="1">
+        <f t="array" ref="D2:D37">FREQUENCY(A2:A314,C2:C36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>16</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>17</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>18</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>19</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>11</v>
+      </c>
+      <c r="C22">
+        <v>20</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>21</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>22</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>23</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>24</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>25</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>26</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>11</v>
+      </c>
+      <c r="C29">
+        <v>27</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>28</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>29</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>30</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>31</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>32</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>33</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>6</v>
+      </c>
+      <c r="C36">
+        <v>34</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/data/subset3/lengths15.xlsx
+++ b/data/subset3/lengths15.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lis37\Documents\nitrate_and_water_in_csd\data\subset3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lis37\nitrate_and_water_in_csd\data\subset3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E0680B-5782-4741-9F96-F04C86EC1B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4DC6158-A9FA-45CB-80E9-A5F6F63F9B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="631">
   <si>
     <t>Identifier</t>
   </si>
@@ -1943,6 +1943,12 @@
   </si>
   <si>
     <t>[11.065941453913052, 6.516803294872916, 9.792088689919208, 6.376412119294805, 9.409725144280186, 6.512966085302656]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">average </t>
+  </si>
+  <si>
+    <t>std</t>
   </si>
 </sst>
 </file>
@@ -5779,18 +5785,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F13AD411-ED15-4F49-9808-B461A59DB179}">
-  <dimension ref="A1:D314"/>
+  <dimension ref="A1:G314"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4</v>
       </c>
@@ -5801,8 +5813,16 @@
         <f t="array" ref="D2:D37">FREQUENCY(A2:A314,C2:C36)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <f>AVERAGE(A:A)</f>
+        <v>3.0479233226837059</v>
+      </c>
+      <c r="G2">
+        <f>_xlfn.STDEV.P(A:A)</f>
+        <v>3.275566019501698</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4</v>
       </c>
@@ -5813,7 +5833,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -5824,7 +5844,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5835,7 +5855,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>8</v>
       </c>
@@ -5846,7 +5866,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -5857,7 +5877,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>17</v>
       </c>
@@ -5868,7 +5888,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -5879,7 +5899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -5890,7 +5910,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -5901,7 +5921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -5912,7 +5932,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -5923,7 +5943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>8</v>
       </c>
@@ -5934,7 +5954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -5945,7 +5965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
